--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2486816.741369967</v>
+        <v>2484564.66165876</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.14763241892951</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755537</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>67.24416875037022</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>42.86209348694737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087818</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>160.0317554412398</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>31.73725475703766</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222602</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.7307820829394</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>21.63824106825358</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016415</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318003</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>125.8152577453158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238324</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805175664</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4764219077143</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180641</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986313</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>652.2346852641114</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1887.813801820604</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1518.851284880192</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3163.957583789738</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3163.957583789738</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3163.957583789738</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2811.188928519624</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.723170258544</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.4970410294717</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1895.236715000576</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1640.552226794689</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>1351.135056757729</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>1123.145505859711</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>1123.145505859711</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>528.0429005162094</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4808,10 +4808,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876729</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614428</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179126</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1205.711814750797</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>984.9192356072673</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
@@ -6549,19 +6549,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,13 +6771,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
@@ -6789,16 +6789,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.589839328116501e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>145.6085800303742</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013703</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>39.70888054695307</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580149</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405122</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>24.81829093850963</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>811494.7169878981</v>
+        <v>811494.7169878982</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597546</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815701</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="F4" t="n">
-        <v>11776.97621680578</v>
-      </c>
       <c r="G4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26442,7 +26442,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26451,7 +26451,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323235</v>
+        <v>-891335.3256323232</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.4200952693</v>
+        <v>437409.4200952686</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.4200952693</v>
+        <v>437409.4200952692</v>
       </c>
       <c r="E6" t="n">
-        <v>187226.6469116864</v>
+        <v>187191.908986251</v>
       </c>
       <c r="F6" t="n">
-        <v>512639.1087190421</v>
+        <v>512604.3707936063</v>
       </c>
       <c r="G6" t="n">
-        <v>512639.1087190423</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="H6" t="n">
-        <v>512639.1087190417</v>
+        <v>512604.3707936059</v>
       </c>
       <c r="I6" t="n">
-        <v>512639.1087190417</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="J6" t="n">
-        <v>295107.9063217646</v>
+        <v>295073.168396329</v>
       </c>
       <c r="K6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.370793606</v>
       </c>
       <c r="L6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.370793606</v>
       </c>
       <c r="M6" t="n">
-        <v>427584.0807835302</v>
+        <v>427549.3428580943</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.3707936059</v>
       </c>
       <c r="O6" t="n">
-        <v>512639.1087190416</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="P6" t="n">
-        <v>512639.1087190415</v>
+        <v>512604.3707936059</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.5862092445511</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231276</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>112.5878114315671</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>209.2755498368806</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071190118</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>43.88621469838034</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>254.4745834485752</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194513</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.1909435705141</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-5.63549605858722e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.63549605858722e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-3.094555564372348e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.940673832634699e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-3.471616909482374e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096869</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L23" t="n">
         <v>867.8464071162563</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263536</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
